--- a/htdocs/App/Controllers/Traspasos/5795FMZ.xlsx
+++ b/htdocs/App/Controllers/Traspasos/5795FMZ.xlsx
@@ -31,7 +31,7 @@
     <t>Fecha Entrada</t>
   </si>
   <si>
-    <t>13-10-2017</t>
+    <t>09-10-2017</t>
   </si>
   <si>
     <t>Atendido por:</t>
@@ -49,7 +49,7 @@
     <t>Cobrado el</t>
   </si>
   <si>
-    <t>2017-10-13</t>
+    <t>2017-10-09</t>
   </si>
   <si>
     <t>x</t>
@@ -64,46 +64,46 @@
     <t>Vendedor:</t>
   </si>
   <si>
+    <t>MANUELA MAYER</t>
+  </si>
+  <si>
+    <t>Impresos/Fotocopias…………………….</t>
+  </si>
+  <si>
+    <t>Telf.</t>
+  </si>
+  <si>
+    <t>Tasa Tráfico…………………………….</t>
+  </si>
+  <si>
+    <t>Imp. Trans. Patrimoniales (620)………….</t>
+  </si>
+  <si>
+    <t>Mail</t>
+  </si>
+  <si>
+    <t>No disponible</t>
+  </si>
+  <si>
+    <t>Form. Expte …………………………….</t>
+  </si>
+  <si>
+    <t>Tramitación Transferencia………………..</t>
+  </si>
+  <si>
+    <t>Cancelación y Gest. RBM………</t>
+  </si>
+  <si>
+    <t>Comprador:</t>
+  </si>
+  <si>
     <t>GABRIEL PALMER</t>
   </si>
   <si>
-    <t>Impresos/Fotocopias…………………….</t>
-  </si>
-  <si>
-    <t>Telf.</t>
-  </si>
-  <si>
-    <t>Tasa Tráfico…………………………….</t>
-  </si>
-  <si>
-    <t>Imp. Trans. Patrimoniales (620)………….</t>
-  </si>
-  <si>
-    <t>Mail</t>
+    <t>Pago y Gest. IVTM………………</t>
   </si>
   <si>
     <t>tallerdiazpalmer@gmail.com</t>
-  </si>
-  <si>
-    <t>Form. Expte …………………………….</t>
-  </si>
-  <si>
-    <t>Tramitación Transferencia………………..</t>
-  </si>
-  <si>
-    <t>Cancelación y Gest. RBM………</t>
-  </si>
-  <si>
-    <t>Comprador:</t>
-  </si>
-  <si>
-    <t>EL MILOUD</t>
-  </si>
-  <si>
-    <t>Pago y Gest. IVTM………………</t>
-  </si>
-  <si>
-    <t>No disponible</t>
   </si>
   <si>
     <t>TOTAL PRESUPUESTO</t>
@@ -1370,7 +1370,7 @@
       </c>
       <c r="C16" s="44"/>
       <c r="D16" s="56">
-        <v>605924457</v>
+        <v>660418298</v>
       </c>
       <c r="E16" s="56"/>
       <c r="F16" s="56"/>
@@ -1395,7 +1395,7 @@
       <c r="W16" s="59"/>
       <c r="X16" s="35"/>
       <c r="Y16" s="36">
-        <v>58</v>
+        <v>12.4</v>
       </c>
       <c r="Z16" s="14" t="s">
         <v>13</v>
@@ -1615,7 +1615,7 @@
       </c>
       <c r="C23" s="42"/>
       <c r="D23" s="56">
-        <v>602159721</v>
+        <v>605924457</v>
       </c>
       <c r="E23" s="56"/>
       <c r="F23" s="56"/>
